--- a/ATSbotDB.xlsx
+++ b/ATSbotDB.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>EUG150S105DTFT02</t>
+          <t>EUD150S560DTA</t>
         </is>
       </c>
     </row>

--- a/ATSbotDB.xlsx
+++ b/ATSbotDB.xlsx
@@ -395,7 +395,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>EUD150S560DTA</t>
+          <t>EUD150S350DTA</t>
         </is>
       </c>
     </row>

--- a/ATSbotDB.xlsx
+++ b/ATSbotDB.xlsx
@@ -392,7 +392,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>ESD320S620DT</t>
+          <t>EUD150S560DTA</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>EUD150S350DTA</t>
+          <t>EUD150S560DTA</t>
         </is>
       </c>
     </row>

--- a/ATSbotDB.xlsx
+++ b/ATSbotDB.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>EUD150S560DTA</t>
+          <t>EUD150S350DTA</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>ESD240S660DT</t>
+          <t>EUD150S560DTA</t>
         </is>
       </c>
     </row>
